--- a/data-sheets/dataDetailed.xlsx
+++ b/data-sheets/dataDetailed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glavni Jan\Desktop\Desktop\rewardheat-main\data-sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glavni Jan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAFC810-5A70-4942-B7EF-3ADB7EBC9E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA30CBD-0763-4779-958A-9AA754436BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="1488" windowWidth="30912" windowHeight="17376" xr2:uid="{898CB88D-BC2A-483D-B2A2-35AFB5BC5EAE}"/>
+    <workbookView xWindow="15216" yWindow="0" windowWidth="31008" windowHeight="17424" xr2:uid="{898CB88D-BC2A-483D-B2A2-35AFB5BC5EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3717,55 +3717,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104396</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>266122</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>112753</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>609599</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="199" name="Picture 198">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041E2AB9-1165-4F56-88F8-FAE9C1B3447E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28427936" y="2582602"/>
-          <a:ext cx="2393417" cy="343477"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4067,8 +4018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC08E9C-047D-4917-B62E-054A1F0FD76D}">
   <dimension ref="A1:AU127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4117,7 +4068,7 @@
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>688</v>
       </c>
@@ -4242,7 +4193,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="130.19999999999999" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" ht="101.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4325,7 +4276,7 @@
       </c>
       <c r="AU2" s="21"/>
     </row>
-    <row r="3" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4414,7 +4365,7 @@
       </c>
       <c r="AU3" s="22"/>
     </row>
-    <row r="4" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4594,7 +4545,7 @@
       </c>
       <c r="AU5" s="22"/>
     </row>
-    <row r="6" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4683,7 +4634,7 @@
       </c>
       <c r="AU6" s="22"/>
     </row>
-    <row r="7" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4889,7 +4840,7 @@
       </c>
       <c r="AU8" s="20"/>
     </row>
-    <row r="9" spans="1:47" ht="144" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4977,7 +4928,7 @@
       </c>
       <c r="AU9" s="22"/>
     </row>
-    <row r="10" spans="1:47" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5070,7 +5021,7 @@
       </c>
       <c r="AU10" s="22"/>
     </row>
-    <row r="11" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5163,7 +5114,7 @@
       </c>
       <c r="AU11" s="22"/>
     </row>
-    <row r="12" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5253,7 +5204,7 @@
       </c>
       <c r="AU12" s="22"/>
     </row>
-    <row r="13" spans="1:47" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5343,7 +5294,7 @@
       </c>
       <c r="AU13" s="22"/>
     </row>
-    <row r="14" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5430,7 +5381,7 @@
       </c>
       <c r="AU14" s="22"/>
     </row>
-    <row r="15" spans="1:47" ht="144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5527,7 +5478,7 @@
       </c>
       <c r="AU15" s="22"/>
     </row>
-    <row r="16" spans="1:47" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" ht="216" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5606,7 +5557,7 @@
       </c>
       <c r="AU16" s="22"/>
     </row>
-    <row r="17" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5698,7 +5649,7 @@
       </c>
       <c r="AU17" s="20"/>
     </row>
-    <row r="18" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5795,7 +5746,7 @@
       </c>
       <c r="AU18" s="22"/>
     </row>
-    <row r="19" spans="1:47" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5881,7 +5832,7 @@
       </c>
       <c r="AU19" s="20"/>
     </row>
-    <row r="20" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5962,7 +5913,7 @@
       </c>
       <c r="AU20" s="22"/>
     </row>
-    <row r="21" spans="1:47" ht="144" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6047,7 +5998,7 @@
       </c>
       <c r="AU21" s="22"/>
     </row>
-    <row r="22" spans="1:47" ht="144" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6155,7 +6106,7 @@
       </c>
       <c r="AU22" s="22"/>
     </row>
-    <row r="23" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6259,7 +6210,7 @@
       </c>
       <c r="AU23" s="22"/>
     </row>
-    <row r="24" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6368,7 +6319,7 @@
       </c>
       <c r="AU24" s="22"/>
     </row>
-    <row r="25" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6476,7 +6427,7 @@
       </c>
       <c r="AU25" s="20"/>
     </row>
-    <row r="26" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6575,7 +6526,7 @@
       </c>
       <c r="AU26" s="22"/>
     </row>
-    <row r="27" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6655,7 +6606,7 @@
       </c>
       <c r="AU27" s="22"/>
     </row>
-    <row r="28" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6740,7 +6691,7 @@
       </c>
       <c r="AU28" s="22"/>
     </row>
-    <row r="29" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6834,7 +6785,7 @@
       </c>
       <c r="AU29" s="20"/>
     </row>
-    <row r="30" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6942,7 +6893,7 @@
       </c>
       <c r="AU30" s="20"/>
     </row>
-    <row r="31" spans="1:47" ht="144" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7055,7 +7006,7 @@
       </c>
       <c r="AU31" s="22"/>
     </row>
-    <row r="32" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" ht="144" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7140,7 +7091,7 @@
       </c>
       <c r="AU32" s="22"/>
     </row>
-    <row r="33" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7228,7 +7179,7 @@
       </c>
       <c r="AU33" s="20"/>
     </row>
-    <row r="34" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7316,7 +7267,7 @@
       </c>
       <c r="AU34" s="22"/>
     </row>
-    <row r="35" spans="1:47" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7407,7 +7358,7 @@
       </c>
       <c r="AU35" s="22"/>
     </row>
-    <row r="36" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" ht="144" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7493,7 +7444,7 @@
       </c>
       <c r="AU36" s="22"/>
     </row>
-    <row r="37" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7579,7 +7530,7 @@
       </c>
       <c r="AU37" s="22"/>
     </row>
-    <row r="38" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7757,7 +7708,7 @@
       </c>
       <c r="AU39" s="22"/>
     </row>
-    <row r="40" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7842,7 +7793,7 @@
       </c>
       <c r="AU40" s="22"/>
     </row>
-    <row r="41" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7922,7 +7873,7 @@
       </c>
       <c r="AU41" s="22"/>
     </row>
-    <row r="42" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8037,7 +7988,7 @@
       </c>
       <c r="AU42" s="22"/>
     </row>
-    <row r="43" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8144,7 +8095,7 @@
       </c>
       <c r="AU43" s="22"/>
     </row>
-    <row r="44" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8231,7 +8182,7 @@
       </c>
       <c r="AU44" s="22"/>
     </row>
-    <row r="45" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8312,7 +8263,7 @@
       </c>
       <c r="AU45" s="22"/>
     </row>
-    <row r="46" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8393,7 +8344,7 @@
       </c>
       <c r="AU46" s="22"/>
     </row>
-    <row r="47" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8474,7 +8425,7 @@
       </c>
       <c r="AU47" s="22"/>
     </row>
-    <row r="48" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8696,7 +8647,7 @@
       </c>
       <c r="AU49" s="22"/>
     </row>
-    <row r="50" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8794,7 +8745,7 @@
       </c>
       <c r="AU50" s="22"/>
     </row>
-    <row r="51" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8892,7 +8843,7 @@
       </c>
       <c r="AU51" s="22"/>
     </row>
-    <row r="52" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8998,7 +8949,7 @@
       </c>
       <c r="AU52" s="22"/>
     </row>
-    <row r="53" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -9080,7 +9031,7 @@
       </c>
       <c r="AU53" s="22"/>
     </row>
-    <row r="54" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -9158,7 +9109,7 @@
       </c>
       <c r="AU54" s="22"/>
     </row>
-    <row r="55" spans="1:47" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" ht="144" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -9251,7 +9202,7 @@
       </c>
       <c r="AU55" s="22"/>
     </row>
-    <row r="56" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -9328,7 +9279,7 @@
       </c>
       <c r="AU56" s="22"/>
     </row>
-    <row r="57" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -9405,7 +9356,7 @@
       </c>
       <c r="AU57" s="22"/>
     </row>
-    <row r="58" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -9482,7 +9433,7 @@
       </c>
       <c r="AU58" s="22"/>
     </row>
-    <row r="59" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -9570,7 +9521,7 @@
       </c>
       <c r="AU59" s="22"/>
     </row>
-    <row r="60" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -9647,7 +9598,7 @@
       </c>
       <c r="AU60" s="22"/>
     </row>
-    <row r="61" spans="1:47" ht="216" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9735,7 +9686,7 @@
       </c>
       <c r="AU61" s="20"/>
     </row>
-    <row r="62" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" ht="144" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9823,7 +9774,7 @@
       </c>
       <c r="AU62" s="22"/>
     </row>
-    <row r="63" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9927,7 +9878,7 @@
       </c>
       <c r="AU63" s="20"/>
     </row>
-    <row r="64" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -10015,7 +9966,7 @@
       </c>
       <c r="AU64" s="22"/>
     </row>
-    <row r="65" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -10088,7 +10039,7 @@
       </c>
       <c r="AU65" s="22"/>
     </row>
-    <row r="66" spans="1:47" ht="144" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -10172,7 +10123,7 @@
       </c>
       <c r="AU66" s="22"/>
     </row>
-    <row r="67" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -10254,7 +10205,7 @@
       </c>
       <c r="AU67" s="22"/>
     </row>
-    <row r="68" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -10342,7 +10293,7 @@
       </c>
       <c r="AU68" s="22"/>
     </row>
-    <row r="69" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -10418,7 +10369,7 @@
       </c>
       <c r="AU69" s="22"/>
     </row>
-    <row r="70" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -10488,7 +10439,7 @@
       </c>
       <c r="AU70" s="22"/>
     </row>
-    <row r="71" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -10560,7 +10511,7 @@
       </c>
       <c r="AU71" s="22"/>
     </row>
-    <row r="72" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:47" ht="144" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -10654,7 +10605,7 @@
       </c>
       <c r="AU72" s="22"/>
     </row>
-    <row r="73" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -10739,7 +10690,7 @@
       </c>
       <c r="AU73" s="22"/>
     </row>
-    <row r="74" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -10824,7 +10775,7 @@
       </c>
       <c r="AU74" s="22"/>
     </row>
-    <row r="75" spans="1:47" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" ht="144" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -10900,7 +10851,7 @@
       </c>
       <c r="AU75" s="22"/>
     </row>
-    <row r="76" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:47" ht="144" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -10979,7 +10930,7 @@
       </c>
       <c r="AU76" s="22"/>
     </row>
-    <row r="77" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -11055,7 +11006,7 @@
       </c>
       <c r="AU77" s="22"/>
     </row>
-    <row r="78" spans="1:47" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -11131,7 +11082,7 @@
       </c>
       <c r="AU78" s="22"/>
     </row>
-    <row r="79" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -11211,7 +11162,7 @@
       </c>
       <c r="AU79" s="22"/>
     </row>
-    <row r="80" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -11281,7 +11232,7 @@
       </c>
       <c r="AU80" s="22"/>
     </row>
-    <row r="81" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -11357,7 +11308,7 @@
       </c>
       <c r="AU81" s="22"/>
     </row>
-    <row r="82" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:47" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -11429,7 +11380,7 @@
       </c>
       <c r="AU82" s="22"/>
     </row>
-    <row r="83" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:47" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -11516,7 +11467,7 @@
       </c>
       <c r="AU83" s="22"/>
     </row>
-    <row r="84" spans="1:47" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -11590,7 +11541,7 @@
       </c>
       <c r="AU84" s="22"/>
     </row>
-    <row r="85" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -11735,7 +11686,7 @@
       </c>
       <c r="AU86" s="22"/>
     </row>
-    <row r="87" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -11800,7 +11751,7 @@
       <c r="AJ87" s="9"/>
       <c r="AU87" s="22"/>
     </row>
-    <row r="88" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -11865,7 +11816,7 @@
       <c r="AJ88" s="6"/>
       <c r="AU88" s="22"/>
     </row>
-    <row r="89" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -11930,7 +11881,7 @@
       <c r="AJ89" s="9"/>
       <c r="AU89" s="22"/>
     </row>
-    <row r="90" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:47" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -11995,7 +11946,7 @@
       <c r="AJ90" s="6"/>
       <c r="AU90" s="22"/>
     </row>
-    <row r="91" spans="1:47" ht="216" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -12069,7 +12020,7 @@
       </c>
       <c r="AU91" s="22"/>
     </row>
-    <row r="92" spans="1:47" ht="216" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -12143,7 +12094,7 @@
       </c>
       <c r="AU92" s="22"/>
     </row>
-    <row r="93" spans="1:47" ht="216" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -12217,7 +12168,7 @@
       </c>
       <c r="AU93" s="22"/>
     </row>
-    <row r="94" spans="1:47" ht="216" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -12289,7 +12240,7 @@
       </c>
       <c r="AU94" s="22"/>
     </row>
-    <row r="95" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -12370,7 +12321,7 @@
       </c>
       <c r="AU95" s="22"/>
     </row>
-    <row r="96" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -12444,7 +12395,7 @@
       </c>
       <c r="AU96" s="22"/>
     </row>
-    <row r="97" spans="1:47" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -12530,7 +12481,7 @@
       </c>
       <c r="AU97" s="22"/>
     </row>
-    <row r="98" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:47" ht="144" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -12598,7 +12549,7 @@
       </c>
       <c r="AU98" s="22"/>
     </row>
-    <row r="99" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:47" ht="144" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -12689,7 +12640,7 @@
       </c>
       <c r="AU99" s="22"/>
     </row>
-    <row r="100" spans="1:47" ht="216" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -12764,7 +12715,7 @@
       </c>
       <c r="AU100" s="22"/>
     </row>
-    <row r="101" spans="1:47" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12838,7 +12789,7 @@
       </c>
       <c r="AU101" s="22"/>
     </row>
-    <row r="102" spans="1:47" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:47" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12921,7 +12872,7 @@
       </c>
       <c r="AU102" s="22"/>
     </row>
-    <row r="103" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:47" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -13001,7 +12952,7 @@
       </c>
       <c r="AU103" s="22"/>
     </row>
-    <row r="104" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" ht="144" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -13092,7 +13043,7 @@
       </c>
       <c r="AU104" s="22"/>
     </row>
-    <row r="105" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -13160,7 +13111,7 @@
       </c>
       <c r="AU105" s="22"/>
     </row>
-    <row r="106" spans="1:47" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -13234,7 +13185,7 @@
       </c>
       <c r="AU106" s="22"/>
     </row>
-    <row r="107" spans="1:47" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -13312,7 +13263,7 @@
       </c>
       <c r="AU107" s="22"/>
     </row>
-    <row r="108" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -13386,7 +13337,7 @@
       </c>
       <c r="AU108" s="22"/>
     </row>
-    <row r="109" spans="1:47" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:47" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -13458,7 +13409,7 @@
       </c>
       <c r="AU109" s="22"/>
     </row>
-    <row r="110" spans="1:47" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -13534,7 +13485,7 @@
       </c>
       <c r="AU110" s="22"/>
     </row>
-    <row r="111" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -13609,7 +13560,7 @@
       </c>
       <c r="AU111" s="22"/>
     </row>
-    <row r="112" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -13679,7 +13630,7 @@
       </c>
       <c r="AU112" s="22"/>
     </row>
-    <row r="113" spans="1:47" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:47" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13753,7 +13704,7 @@
       </c>
       <c r="AU113" s="22"/>
     </row>
-    <row r="114" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13831,7 +13782,7 @@
       </c>
       <c r="AU114" s="22"/>
     </row>
-    <row r="115" spans="1:47" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:47" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13905,7 +13856,7 @@
       </c>
       <c r="AU115" s="22"/>
     </row>
-    <row r="116" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -13979,7 +13930,7 @@
       </c>
       <c r="AU116" s="22"/>
     </row>
-    <row r="117" spans="1:47" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -14059,7 +14010,7 @@
       </c>
       <c r="AU117" s="22"/>
     </row>
-    <row r="118" spans="1:47" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -14146,7 +14097,7 @@
       </c>
       <c r="AU118" s="22"/>
     </row>
-    <row r="119" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:47" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -14224,7 +14175,7 @@
       </c>
       <c r="AU119" s="22"/>
     </row>
-    <row r="120" spans="1:47" ht="216" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:47" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -14298,7 +14249,7 @@
       </c>
       <c r="AU120" s="22"/>
     </row>
-    <row r="121" spans="1:47" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -14376,7 +14327,7 @@
       </c>
       <c r="AU121" s="22"/>
     </row>
-    <row r="122" spans="1:47" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:47" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -14458,6 +14409,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>